--- a/Anainvoices.xlsx
+++ b/Anainvoices.xlsx
@@ -510,7 +510,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>#15</t>
+          <t>#16</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -557,7 +557,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>#15</t>
+          <t>#16</t>
         </is>
       </c>
       <c r="D3" s="2" t="n">

--- a/Anainvoices.xlsx
+++ b/Anainvoices.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -510,7 +510,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>#16</t>
+          <t>#14</t>
         </is>
       </c>
       <c r="D2" s="2" t="n">
@@ -539,54 +539,7 @@
         <v>85</v>
       </c>
       <c r="K2" t="n">
-        <v>535.15</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Ioannis Miltiadous
-Ariadnis 6, Aglatzia
-Lefkosia, 2103</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>60071105E</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>#16</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="n">
-        <v>45961</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Kouvalontas sto lol</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>October</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>999</v>
-      </c>
-      <c r="I3" t="n">
-        <v>999</v>
-      </c>
-      <c r="J3" t="n">
-        <v>85</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1005.14</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
